--- a/Functional_Testing/TestDatas/User_Register_Test_Data.xlsx
+++ b/Functional_Testing/TestDatas/User_Register_Test_Data.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -174,24 +173,12 @@
     <t>Success</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Invalid phone number.</t>
-  </si>
-  <si>
     <t>jackiemail.com</t>
   </si>
   <si>
     <t>Go</t>
   </si>
   <si>
-    <t>Name should be more than 3 characters long Password should be atleast 7 characters with alphanumeric characters</t>
-  </si>
-  <si>
-    <t>Invalid Email Address    Invalid phone number</t>
-  </si>
-  <si>
     <t>Gh</t>
   </si>
   <si>
@@ -201,9 +188,6 @@
     <t>ghij@123</t>
   </si>
   <si>
-    <t>Name should be more than 3 characters long  Invalid Email Address</t>
-  </si>
-  <si>
     <t>Abcd</t>
   </si>
   <si>
@@ -213,9 +197,6 @@
     <t>abcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid Email Address   Password should be atleast 7 characters with alphanumeric characters   </t>
-  </si>
-  <si>
     <t>lmno</t>
   </si>
   <si>
@@ -228,9 +209,6 @@
     <t>lmno@1234</t>
   </si>
   <si>
-    <t>Name should be more than 3 characters long Confirm Password should be equal to password</t>
-  </si>
-  <si>
     <t>fg</t>
   </si>
   <si>
@@ -243,9 +221,6 @@
     <t>gfghr@123</t>
   </si>
   <si>
-    <t>Name should be more than 3 characters long  Invalid phone number</t>
-  </si>
-  <si>
     <t>dh</t>
   </si>
   <si>
@@ -258,15 +233,6 @@
     <t>oksleuff</t>
   </si>
   <si>
-    <t>Name should be more than 3 characters long Invalid Email Address Password should be atleast 7 characters with alphanumeric characters  Confirm Password should be equal to password Invalid phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name should be more than 3 characters long Invalid Email Address   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name should be more than 3 characters long Invalid Email Address Password should be atleast 7 characters with alphanumeric characters Confirm Password should be equal to password </t>
-  </si>
-  <si>
     <t>Rohini</t>
   </si>
   <si>
@@ -276,24 +242,9 @@
     <t>Rohini@123</t>
   </si>
   <si>
-    <t>User Alrready Exist</t>
-  </si>
-  <si>
-    <t>User already exist</t>
-  </si>
-  <si>
     <t>$$%#$#$$</t>
   </si>
   <si>
-    <t xml:space="preserve">Name should be more than 3 characters long </t>
-  </si>
-  <si>
-    <t>Name should be more than 3 characters long   Invalid Email Address</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -324,9 +275,6 @@
     <t>+351</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>+46</t>
   </si>
   <si>
@@ -343,6 +291,18 @@
   </si>
   <si>
     <t>asdf@gmail.com</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>+94</t>
+  </si>
+  <si>
+    <t>+67</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -353,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="\+\8\5\6"/>
     <numFmt numFmtId="165" formatCode="\+"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,12 +342,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -419,10 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,14 +400,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -501,6 +444,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,24 +762,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18" style="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" width="21.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,667 +796,566 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="12">
+        <v>8945327168</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="12">
+        <v>8945327170</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="12">
+        <v>8945327163</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="12">
+        <v>8945327173</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12">
+        <v>89453271647</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="12">
+        <v>8945327167</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="12">
+        <v>764839</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8945327180</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="12">
+        <v>8945327180</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8945327181</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8565849</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="12">
+        <v>7585709257</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="19">
+        <v>9748531246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="16">
-        <v>8945327168</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="15" t="s">
+      <c r="C15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="12">
+        <v>674839475</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12">
+        <v>674839476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="25">
+        <v>8945327171</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7">
+        <v>856</v>
+      </c>
+      <c r="F18" s="25">
+        <v>8945327172</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="25">
+        <v>8945327174</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="16">
-        <v>8945327169</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="I3" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="16">
-        <v>8945327170</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="16">
-        <v>8945327163</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="16">
-        <v>8945327173</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="16">
-        <v>89453271647</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="16">
-        <v>8945327167</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="16">
-        <v>764839</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="16">
-        <v>8945327180</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="16">
-        <v>8945327180</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="F20" s="25"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="25">
+        <v>8945327178</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="25">
+        <v>8945327179</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="25">
+        <v>7846536829</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="25">
         <v>8945327181</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="16">
-        <v>8565849</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="16">
-        <v>7585709257</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="24">
-        <v>9748531246</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>12345</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="16">
-        <v>674839475</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="16">
-        <v>674839476</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="D6" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="C7" r:id="rId13"/>
-    <hyperlink ref="B8" r:id="rId14"/>
-    <hyperlink ref="C8" r:id="rId15"/>
-    <hyperlink ref="D8" r:id="rId16"/>
-    <hyperlink ref="B5" r:id="rId17"/>
-    <hyperlink ref="B9" r:id="rId18" display="jackie@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="D7" r:id="rId13"/>
+    <hyperlink ref="B4" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15" display="jackie@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D6" r:id="rId18"/>
     <hyperlink ref="C9" r:id="rId19"/>
     <hyperlink ref="D9" r:id="rId20"/>
-    <hyperlink ref="D7" r:id="rId21"/>
-    <hyperlink ref="C10" r:id="rId22"/>
-    <hyperlink ref="D10" r:id="rId23"/>
-    <hyperlink ref="B12" r:id="rId24"/>
-    <hyperlink ref="C12" r:id="rId25"/>
-    <hyperlink ref="B13" r:id="rId26"/>
-    <hyperlink ref="C13" r:id="rId27"/>
-    <hyperlink ref="D13" r:id="rId28"/>
-    <hyperlink ref="B15" r:id="rId29"/>
-    <hyperlink ref="C15" r:id="rId30"/>
-    <hyperlink ref="D15" r:id="rId31"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="C11" r:id="rId22"/>
+    <hyperlink ref="B12" r:id="rId23"/>
+    <hyperlink ref="C12" r:id="rId24"/>
+    <hyperlink ref="D12" r:id="rId25"/>
+    <hyperlink ref="B14" r:id="rId26"/>
+    <hyperlink ref="C14" r:id="rId27"/>
+    <hyperlink ref="D14" r:id="rId28"/>
+    <hyperlink ref="D15" r:id="rId29"/>
+    <hyperlink ref="B15" r:id="rId30"/>
+    <hyperlink ref="C15" r:id="rId31"/>
     <hyperlink ref="D16" r:id="rId32"/>
     <hyperlink ref="B16" r:id="rId33"/>
     <hyperlink ref="C16" r:id="rId34"/>
-    <hyperlink ref="D17" r:id="rId35"/>
-    <hyperlink ref="B17" r:id="rId36"/>
-    <hyperlink ref="C17" r:id="rId37"/>
+    <hyperlink ref="B17" r:id="rId35"/>
+    <hyperlink ref="C17" r:id="rId36"/>
+    <hyperlink ref="D17" r:id="rId37"/>
+    <hyperlink ref="C18" r:id="rId38"/>
+    <hyperlink ref="D18" r:id="rId39"/>
+    <hyperlink ref="B19" r:id="rId40"/>
+    <hyperlink ref="D19" r:id="rId41"/>
+    <hyperlink ref="B20" r:id="rId42"/>
+    <hyperlink ref="C20" r:id="rId43"/>
+    <hyperlink ref="D20" r:id="rId44"/>
+    <hyperlink ref="C21" r:id="rId45"/>
+    <hyperlink ref="D21" r:id="rId46"/>
+    <hyperlink ref="B22" r:id="rId47"/>
+    <hyperlink ref="B24" r:id="rId48"/>
+    <hyperlink ref="C24" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="12">
-        <v>8945327180</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="12">
-        <v>7585709257</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4">
-        <v>9748531246</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Functional_Testing/TestDatas/User_Register_Test_Data.xlsx
+++ b/Functional_Testing/TestDatas/User_Register_Test_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>Invalid parameters provided. Please provide valid parameters.</t>
+  </si>
+  <si>
+    <t>User already exist</t>
   </si>
 </sst>
 </file>
@@ -770,16 +776,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="10" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="23.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="10" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="45.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="10" width="52.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="18.0" collapsed="true"/>
+    <col min="10" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,6 +830,9 @@
       <c r="F2" s="12">
         <v>8945327168</v>
       </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2"/>
     </row>
@@ -846,7 +855,9 @@
       <c r="F3" s="12">
         <v>8945327170</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
       <c r="H3"/>
       <c r="I3" s="13"/>
     </row>
@@ -869,7 +880,9 @@
       <c r="F4" s="12">
         <v>8945327163</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
       <c r="H4"/>
       <c r="I4" s="13"/>
     </row>
@@ -892,7 +905,9 @@
       <c r="F5" s="12">
         <v>8945327173</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
       <c r="H5"/>
       <c r="I5" s="13"/>
     </row>
@@ -915,7 +930,9 @@
       <c r="F6" s="12">
         <v>89453271647</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
       <c r="H6"/>
       <c r="I6" s="13"/>
     </row>
@@ -938,7 +955,9 @@
       <c r="F7" s="12">
         <v>8945327167</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
       <c r="H7"/>
       <c r="I7" s="13"/>
     </row>
@@ -961,7 +980,9 @@
       <c r="F8" s="12">
         <v>764839</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
       <c r="H8"/>
       <c r="I8" s="13"/>
     </row>
@@ -984,7 +1005,9 @@
       <c r="F9" s="12">
         <v>8945327180</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
       <c r="H9"/>
       <c r="I9" s="13"/>
     </row>
@@ -1007,7 +1030,9 @@
       <c r="F10" s="12">
         <v>8945327180</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
       <c r="H10"/>
       <c r="I10" s="13"/>
     </row>
@@ -1030,7 +1055,9 @@
       <c r="F11" s="12">
         <v>8945327181</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
     </row>
@@ -1360,15 +1387,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
